--- a/va_facility_data_2025-02-20/Roosevelt VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Roosevelt%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Roosevelt VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Roosevelt%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R20e0f5fc67e44a0d8070973668d489b0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R83beac17590a4beeb0ab7a073b829b89"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6cd2e0f253364a9ab8b2db7056139b80"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7edcdc9b4a9a4a96afa445e879b3a87e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3cd25af960824765888f7294c8cc3507"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R70aa8149ed7d42859672ba8c1159e261"/>
   </x:sheets>
 </x:workbook>
 </file>
